--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318143.1765959077</v>
+        <v>315245.7483382704</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="G2" t="n">
-        <v>13.8871982085107</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21008304703081</v>
+        <v>16.0394411478257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13.48628024463341</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>16.03944114782473</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>16.0394411478257</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.0394411478257</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.03944114782473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>43.85944218949135</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>46.49613729883792</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.85944218949135</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>49.79500702712463</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>17.62325037119973</v>
       </c>
       <c r="U7" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>62.23605351084164</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547972</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X8" t="n">
-        <v>48.84734916635355</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H9" t="n">
-        <v>8.037790645995411</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749222</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>62.17490796054056</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>98.74883103803253</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>84.48026621731221</v>
       </c>
       <c r="X10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>162.6159201417024</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589021</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>20.21682288978752</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.4746605491561</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143259</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>31.05052223136337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389942</v>
+        <v>28.90056660389948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>361.4825023424187</v>
+        <v>110.3524419080611</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.8977843151208</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853819</v>
+        <v>12.76005920853822</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>100.3922484309883</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396095</v>
+        <v>82.30038209396098</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
@@ -1819,19 +1819,19 @@
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>28.7800558421172</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187925</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368224</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2081,19 +2081,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684682</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247492</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453141</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,16 +2293,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2327,10 +2327,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,16 +2530,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247468</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947558</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295185</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221828</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3202,7 +3202,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442993</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
         <v>54.52629139453013</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221626</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3439,10 +3439,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452949</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,10 +3518,10 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-2.152518163711647e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642294905</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453119</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3952,16 +3952,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -4144,7 +4144,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707166</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="C2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="D2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="E2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="F2" t="n">
-        <v>33.87830286148116</v>
+        <v>36.0522856284672</v>
       </c>
       <c r="G2" t="n">
-        <v>19.85082992359157</v>
+        <v>17.658262348637</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85082992359157</v>
+        <v>17.658262348637</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="K2" t="n">
-        <v>10.43619098039755</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="L2" t="n">
-        <v>10.43619098039755</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="M2" t="n">
-        <v>28.46417319695806</v>
+        <v>19.48478886032414</v>
       </c>
       <c r="N2" t="n">
-        <v>46.49215541351856</v>
+        <v>37.51277107688573</v>
       </c>
       <c r="O2" t="n">
-        <v>54.81234997156274</v>
+        <v>55.54075329344731</v>
       </c>
       <c r="P2" t="n">
-        <v>54.81234997156274</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="T2" t="n">
-        <v>54.44630890829414</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="U2" t="n">
-        <v>54.44630890829414</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="V2" t="n">
-        <v>54.44630890829414</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="W2" t="n">
-        <v>54.44630890829414</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="X2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.82380361068464</v>
+        <v>54.44630890829741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.456806643762465</v>
+        <v>56.63887648325317</v>
       </c>
       <c r="C3" t="n">
-        <v>1.456806643762465</v>
+        <v>56.63887648325317</v>
       </c>
       <c r="D3" t="n">
-        <v>1.456806643762465</v>
+        <v>56.63887648325317</v>
       </c>
       <c r="E3" t="n">
-        <v>1.456806643762465</v>
+        <v>38.24485320342296</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456806643762465</v>
+        <v>38.24485320342296</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456806643762465</v>
+        <v>38.24485320342296</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456806643762465</v>
+        <v>19.85082992359276</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032297</v>
+        <v>8.210894245726955</v>
       </c>
       <c r="M3" t="n">
-        <v>36.78436775500224</v>
+        <v>26.23887646228854</v>
       </c>
       <c r="N3" t="n">
-        <v>54.81234997156274</v>
+        <v>44.26685867885013</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218812324</v>
+        <v>62.29484089541171</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="R3" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829414</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="T3" t="n">
-        <v>38.24485320342067</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="U3" t="n">
-        <v>38.24485320342067</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="V3" t="n">
-        <v>19.85082992359157</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="W3" t="n">
-        <v>19.85082992359157</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="X3" t="n">
-        <v>19.85082992359157</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85082992359157</v>
+        <v>56.63887648325317</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.63887648324977</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="C4" t="n">
-        <v>56.63887648324977</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="D4" t="n">
-        <v>56.63887648324977</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="E4" t="n">
-        <v>38.24485320342067</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="F4" t="n">
-        <v>19.85082992359157</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="G4" t="n">
-        <v>19.85082992359157</v>
+        <v>38.24485320342296</v>
       </c>
       <c r="H4" t="n">
-        <v>19.85082992359157</v>
+        <v>19.85082992359276</v>
       </c>
       <c r="I4" t="n">
-        <v>19.85082992359157</v>
+        <v>19.85082992359276</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762465</v>
+        <v>1.456806643762552</v>
       </c>
       <c r="K4" t="n">
-        <v>19.48478886032297</v>
+        <v>19.48478886032414</v>
       </c>
       <c r="L4" t="n">
-        <v>37.51277107688347</v>
+        <v>37.51277107688573</v>
       </c>
       <c r="M4" t="n">
-        <v>54.81234997156274</v>
+        <v>55.54075329344731</v>
       </c>
       <c r="N4" t="n">
-        <v>54.81234997156274</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="O4" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812324</v>
+        <v>72.84033218812762</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="R4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="S4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="T4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="U4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="V4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="W4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="X4" t="n">
-        <v>72.84033218812324</v>
+        <v>54.44630890829741</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.63887648324977</v>
+        <v>54.44630890829741</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="C5" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="E5" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="F5" t="n">
+        <v>154.8775612504264</v>
+      </c>
+      <c r="G5" t="n">
         <v>104.5795743543409</v>
       </c>
-      <c r="C5" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="D5" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="E5" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>54.28158745825545</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.98360056216997</v>
       </c>
       <c r="I5" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>62.2614493974929</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="M5" t="n">
-        <v>111.5585063543463</v>
+        <v>102.5777144758767</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8555633111997</v>
+        <v>151.8747714327301</v>
       </c>
       <c r="O5" t="n">
         <v>199.1800281084985</v>
@@ -4610,7 +4610,7 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.98360056216997</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="C6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4659,7 +4659,7 @@
         <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>154.8775612504264</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="S6" t="n">
-        <v>104.5795743543409</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="T6" t="n">
-        <v>104.5795743543409</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="U6" t="n">
-        <v>104.5795743543409</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="V6" t="n">
-        <v>104.5795743543409</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="W6" t="n">
-        <v>54.28158745825545</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="X6" t="n">
-        <v>54.28158745825545</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.98360056216997</v>
+        <v>101.2473827096069</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.98360056216997</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C7" t="n">
-        <v>3.98360056216997</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D7" t="n">
-        <v>3.98360056216997</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E7" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F7" t="n">
         <v>3.98360056216997</v>
@@ -4726,13 +4726,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="L7" t="n">
         <v>53.28065751902335</v>
       </c>
       <c r="M7" t="n">
-        <v>53.28065751902335</v>
+        <v>100.5859141947917</v>
       </c>
       <c r="N7" t="n">
         <v>100.5859141947917</v>
@@ -4744,16 +4744,16 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.1800281084985</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="R7" t="n">
-        <v>148.882041212413</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="S7" t="n">
-        <v>148.882041212413</v>
+        <v>122.3808373555528</v>
       </c>
       <c r="T7" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="U7" t="n">
         <v>104.5795743543409</v>
@@ -4765,10 +4765,10 @@
         <v>104.5795743543409</v>
       </c>
       <c r="X7" t="n">
-        <v>54.28158745825545</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.98360056216997</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>369.1737910533975</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="C8" t="n">
-        <v>255.928679816101</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="D8" t="n">
-        <v>255.928679816101</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="E8" t="n">
-        <v>255.928679816101</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="F8" t="n">
-        <v>248.9831790668976</v>
+        <v>71.83371332599555</v>
       </c>
       <c r="G8" t="n">
-        <v>235.4592352845867</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472903</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687528</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773374</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083924</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320668</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416789</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>418.5145477870879</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="T8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="U8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
-        <v>418.5145477870879</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="X8" t="n">
-        <v>369.1737910533975</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="Y8" t="n">
-        <v>369.1737910533975</v>
+        <v>78.77921407519902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.2621726184657</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C9" t="n">
-        <v>298.2621726184657</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D9" t="n">
-        <v>298.2621726184657</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E9" t="n">
-        <v>185.0170613811694</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="F9" t="n">
-        <v>71.77195014387296</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G9" t="n">
-        <v>71.77195014387296</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.2216681853454</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672035</v>
+        <v>65.44790611672062</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403945</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640687</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953186</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557621</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184657</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>298.2621726184657</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>298.2621726184657</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>298.2621726184657</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="W9" t="n">
-        <v>298.2621726184657</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="X9" t="n">
-        <v>298.2621726184657</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.2621726184657</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.9604180251009</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9604180251009</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D10" t="n">
-        <v>122.2141240472903</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E10" t="n">
-        <v>122.2141240472903</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F10" t="n">
-        <v>122.2141240472903</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G10" t="n">
-        <v>122.2141240472903</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193844</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656126</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892868</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N10" t="n">
-        <v>311.3199313527247</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568685</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P10" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="R10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="S10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="T10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="U10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="V10" t="n">
-        <v>448.4506404996937</v>
+        <v>434.037948761593</v>
       </c>
       <c r="W10" t="n">
-        <v>448.4506404996937</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="X10" t="n">
-        <v>335.2055292623973</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.2055292623973</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.57974610909</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C11" t="n">
-        <v>1442.617229168678</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1442.617229168678</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.828976570434</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>645.843071780826</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>230.7706216258223</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W11" t="n">
-        <v>2961.784676410102</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X11" t="n">
-        <v>2588.318918149023</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y11" t="n">
-        <v>2198.179586173212</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.5323442946343</v>
+        <v>182.1430866838563</v>
       </c>
       <c r="C13" t="n">
-        <v>507.5323442946343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>359.6192507122412</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143308</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143308</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.621931827995</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>1137.962939166422</v>
+        <v>812.5736815556435</v>
       </c>
       <c r="X13" t="n">
-        <v>909.9733882684042</v>
+        <v>584.5841306576261</v>
       </c>
       <c r="Y13" t="n">
-        <v>689.180809124874</v>
+        <v>363.791551514096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1978.382226126758</v>
+        <v>2336.647924733509</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.419709186346</v>
+        <v>1967.685407793098</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.419709186346</v>
+        <v>1609.419709186347</v>
       </c>
       <c r="E14" t="n">
         <v>1223.631456588102</v>
@@ -5273,55 +5273,55 @@
         <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056001</v>
+        <v>666.2644720055987</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645701</v>
+        <v>1168.668140645699</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275287</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235393</v>
+        <v>2364.22057923539</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163076</v>
+        <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140405</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049515</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584651</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.527800584651</v>
+        <v>3623.805524045194</v>
       </c>
       <c r="T14" t="n">
-        <v>3726.527800584651</v>
+        <v>3419.281671577575</v>
       </c>
       <c r="U14" t="n">
-        <v>3473.023894186724</v>
+        <v>3165.777765179647</v>
       </c>
       <c r="V14" t="n">
-        <v>3473.023894186724</v>
+        <v>2834.714877836077</v>
       </c>
       <c r="W14" t="n">
-        <v>3120.255238916609</v>
+        <v>2834.714877836077</v>
       </c>
       <c r="X14" t="n">
-        <v>2755.121398166692</v>
+        <v>2723.247764797631</v>
       </c>
       <c r="Y14" t="n">
-        <v>2364.98206619088</v>
+        <v>2723.247764797631</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807618</v>
+        <v>159.4390058218821</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6629209807618</v>
+        <v>159.4390058218821</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1777797596422</v>
+        <v>563.9538646007622</v>
       </c>
       <c r="M15" t="n">
-        <v>1080.584408393598</v>
+        <v>1055.360493234718</v>
       </c>
       <c r="N15" t="n">
-        <v>1599.405753177183</v>
+        <v>1574.181838018303</v>
       </c>
       <c r="O15" t="n">
-        <v>2051.806128478416</v>
+        <v>2026.582213319536</v>
       </c>
       <c r="P15" t="n">
         <v>2370.340332577117</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.8966956425405</v>
+        <v>640.4973094120427</v>
       </c>
       <c r="C16" t="n">
-        <v>831.8966956425405</v>
+        <v>539.0909978655899</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7800562302048</v>
+        <v>388.9743584532541</v>
       </c>
       <c r="E16" t="n">
-        <v>533.8669626478116</v>
+        <v>388.9743584532541</v>
       </c>
       <c r="F16" t="n">
-        <v>386.9770151499013</v>
+        <v>242.0844109553438</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4231602062504</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923173</v>
+        <v>350.928283792317</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553108</v>
+        <v>689.1968198553102</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
         <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135874</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389595</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304786</v>
+        <v>1996.937179304785</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.84763952875</v>
+        <v>1807.847639528748</v>
       </c>
       <c r="T16" t="n">
-        <v>1586.717582192514</v>
+        <v>1586.717582192513</v>
       </c>
       <c r="U16" t="n">
-        <v>1586.717582192514</v>
+        <v>1297.6228415917</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.033093986627</v>
+        <v>1042.938353385812</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.615923949666</v>
+        <v>1042.938353385812</v>
       </c>
       <c r="X16" t="n">
-        <v>1013.54516047278</v>
+        <v>1042.938353385812</v>
       </c>
       <c r="Y16" t="n">
-        <v>1013.54516047278</v>
+        <v>822.1457742422824</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
         <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
         <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
         <v>2834.342818501802</v>
@@ -5586,10 +5586,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5607,7 +5607,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
@@ -5713,10 +5713,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233287</v>
@@ -5774,28 +5774,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>122.7666162271028</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8076655769671</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>879.6062951712944</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609057</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039813</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315396</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749455</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897944</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5944,16 +5944,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6005,28 +6005,28 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6124,46 +6124,46 @@
         <v>872.8624197502095</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597204</v>
@@ -6181,16 +6181,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112804</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497861</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216579</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796648</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511619</v>
@@ -6224,19 +6224,19 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233286</v>
@@ -6263,10 +6263,10 @@
         <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.132983851458</v>
@@ -6315,16 +6315,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.372701792863</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2143.777656741113</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749437</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443613</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6467,7 +6467,7 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
@@ -6494,10 +6494,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
@@ -6543,25 +6543,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>354.3572725988141</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>808.1559021931415</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1934.929714729833</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
@@ -6637,7 +6637,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6649,19 +6649,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.315654538067</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2028.720609486317</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2415.822165038473</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,10 +6856,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902786</v>
@@ -6877,7 +6877,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
@@ -6889,7 +6889,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6923,10 +6923,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511622</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -7026,16 +7026,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O36" t="n">
-        <v>2100.171002464469</v>
+        <v>2028.720609486317</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2415.822165038473</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897925</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
@@ -7096,10 +7096,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,7 +7108,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
         <v>2392.455631028688</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796654</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162817</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511402</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511619</v>
@@ -7178,7 +7178,7 @@
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7199,25 +7199,25 @@
         <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1068.517024943739</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.372372870142</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2152.777327818392</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,40 +7330,40 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042776</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7388,7 +7388,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7397,13 +7397,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
@@ -7491,25 +7491,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>354.3572725988141</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>808.1559021931415</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M42" t="n">
-        <v>1357.074366803431</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N42" t="n">
-        <v>1934.929714729833</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609051</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897942</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7588,19 +7588,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,10 +7609,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7673,10 +7673,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7728,25 +7728,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7825,31 +7825,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107753</v>
+        <v>60.903775301077</v>
       </c>
       <c r="K2" t="n">
-        <v>49.0980281584832</v>
+        <v>40.02794296996211</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986452</v>
+        <v>12.38369583986355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.805846119713525</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855421</v>
+        <v>45.150996154392</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.65345262324965</v>
+        <v>69.44336957621815</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587605</v>
+        <v>55.28179755587574</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924369</v>
+        <v>15.54112977924315</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957052</v>
+        <v>43.30284318957011</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>73.45227819721399</v>
+        <v>73.45227819721475</v>
       </c>
       <c r="L4" t="n">
-        <v>58.69319715026906</v>
+        <v>58.69319715026974</v>
       </c>
       <c r="M4" t="n">
-        <v>56.86689482244637</v>
+        <v>57.60265575364018</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988187</v>
+        <v>47.99333263572014</v>
       </c>
       <c r="O4" t="n">
-        <v>66.91760054109295</v>
+        <v>48.70751749406175</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728802</v>
+        <v>60.93221199728769</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.50107625726477</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>33.792676279738</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.071506947949025</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,16 +8374,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>95.66285413274987</v>
       </c>
       <c r="L7" t="n">
-        <v>78.28218310839884</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>74.5276255683506</v>
       </c>
       <c r="N7" t="n">
-        <v>65.95480537679344</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
         <v>87.09780125070267</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946475</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771693</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867677</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821503</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274682</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4537900083356</v>
+        <v>111.9239855588438</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>54.49890187152825</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>131.9918442456181</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292604</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396203</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>329.0241458276255</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>52.77216054947175</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>255.4724761052276</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>8.2485983360503</v>
+        <v>259.378658770408</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>66.85457266763954</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434401</v>
+        <v>91.91693778434403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>196.9295995469199</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-5.775380301785823e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.851497230149107e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-4.618527782440651e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.496225862269057e-13</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.238209617644316e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882351.4256411063</v>
+        <v>882351.4256411067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>929266.002221989</v>
+        <v>929266.0022219886</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1059637.079842221</v>
+        <v>1059637.07984222</v>
       </c>
     </row>
     <row r="11">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="F2" t="n">
-        <v>341425.2235328995</v>
+        <v>341425.2235328991</v>
       </c>
       <c r="G2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="H2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="I2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>389994.8406855346</v>
-      </c>
-      <c r="J2" t="n">
-        <v>389994.8406855345</v>
       </c>
       <c r="K2" t="n">
         <v>389994.8406855345</v>
@@ -26347,10 +26347,10 @@
         <v>389994.8406855345</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="P2" t="n">
         <v>389994.8406855345</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321806</v>
+        <v>345405.5970321826</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876676</v>
+        <v>50948.631348765</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513204</v>
+        <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
         <v>707780.857642954</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654363</v>
+        <v>93369.8848465427</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975329</v>
+        <v>143964.0818975335</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757286</v>
+        <v>4764.558968757434</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908902</v>
+        <v>8128.948714908672</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194619</v>
+        <v>41060.1990219462</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613178</v>
+        <v>24549.1543861315</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875941</v>
+        <v>31434.59456875968</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347107.9431314862</v>
+        <v>347107.9431314857</v>
       </c>
       <c r="C4" t="n">
-        <v>331736.8656690617</v>
+        <v>331736.8656690616</v>
       </c>
       <c r="D4" t="n">
-        <v>304173.8599471606</v>
+        <v>304173.8599471605</v>
       </c>
       <c r="E4" t="n">
-        <v>13430.06689216519</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="F4" t="n">
         <v>13481.93447066361</v>
       </c>
       <c r="G4" t="n">
-        <v>44619.42690608395</v>
+        <v>44619.42690608387</v>
       </c>
       <c r="H4" t="n">
-        <v>44619.42690608396</v>
+        <v>44619.42690608387</v>
       </c>
       <c r="I4" t="n">
-        <v>44619.42690608391</v>
+        <v>44619.42690608389</v>
       </c>
       <c r="J4" t="n">
-        <v>44619.42690608399</v>
+        <v>44619.42690608386</v>
       </c>
       <c r="K4" t="n">
-        <v>44619.42690608389</v>
+        <v>44619.42690608387</v>
       </c>
       <c r="L4" t="n">
         <v>44619.42690608387</v>
       </c>
       <c r="M4" t="n">
-        <v>44619.42690608387</v>
+        <v>44619.42690608386</v>
       </c>
       <c r="N4" t="n">
-        <v>44619.42690608399</v>
+        <v>44619.42690608395</v>
       </c>
       <c r="O4" t="n">
-        <v>44619.42690608387</v>
+        <v>44619.42690608393</v>
       </c>
       <c r="P4" t="n">
         <v>44619.42690608387</v>
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425668</v>
+        <v>42410.88882425678</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172269</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390706</v>
+        <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="J5" t="n">
         <v>95106.43410215525</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215527</v>
@@ -26506,7 +26506,7 @@
         <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344929.5883023886</v>
+        <v>-344929.5883023902</v>
       </c>
       <c r="C6" t="n">
-        <v>-37997.33952277598</v>
+        <v>-37997.339522774</v>
       </c>
       <c r="D6" t="n">
-        <v>-52235.90844848058</v>
+        <v>-52235.90844848107</v>
       </c>
       <c r="E6" t="n">
-        <v>-471570.0210741379</v>
+        <v>-471917.6400039441</v>
       </c>
       <c r="F6" t="n">
-        <v>152390.0070117852</v>
+        <v>152134.3774478245</v>
       </c>
       <c r="G6" t="n">
-        <v>106304.8977797624</v>
+        <v>106304.8977797619</v>
       </c>
       <c r="H6" t="n">
-        <v>250268.9796772953</v>
+        <v>250268.9796772951</v>
       </c>
       <c r="I6" t="n">
-        <v>250268.9796772952</v>
+        <v>250268.9796772955</v>
       </c>
       <c r="J6" t="n">
         <v>245504.420708538</v>
       </c>
       <c r="K6" t="n">
-        <v>242140.0309623865</v>
+        <v>242140.0309623867</v>
       </c>
       <c r="L6" t="n">
         <v>209208.7806553492</v>
       </c>
       <c r="M6" t="n">
-        <v>71019.33473899378</v>
+        <v>71019.33473899381</v>
       </c>
       <c r="N6" t="n">
-        <v>225719.8252911632</v>
+        <v>225719.8252911638</v>
       </c>
       <c r="O6" t="n">
-        <v>218834.3851085359</v>
+        <v>218834.3851085355</v>
       </c>
       <c r="P6" t="n">
         <v>250268.9796772953</v>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221394</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.115402522808</v>
+        <v>352.1154025228095</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985019</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808274</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461628</v>
+        <v>931.6319501461621</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188952</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.115402522808</v>
+        <v>352.1154025228095</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074476006</v>
+        <v>44.74454074475852</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093388</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947964</v>
+        <v>613.6609493947963</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497564</v>
+        <v>81.79094321497496</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118486</v>
+        <v>106.5922268118491</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009382</v>
+        <v>31.58492398009272</v>
       </c>
       <c r="D4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438702</v>
+        <v>100.230494743869</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427895</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.21008304703145</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009427</v>
+        <v>31.58492398009318</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438686</v>
       </c>
       <c r="O4" t="n">
-        <v>130.62316204279</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009382</v>
+        <v>31.58492398009272</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438702</v>
+        <v>100.230494743869</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427895</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>388.6659626946795</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.6771151614788</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918005</v>
+        <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>137.6932274047397</v>
+        <v>139.8638693039446</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140761</v>
+        <v>42.74016392437532</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365429</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
-        <v>198.6892432023524</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>356.2448204338356</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3231006028365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>139.434997408369</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>86.71066197856619</v>
       </c>
       <c r="I3" t="n">
-        <v>63.32016200420712</v>
+        <v>45.11007895717511</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.13381869874812</v>
+        <v>53.13381869874791</v>
       </c>
       <c r="S3" t="n">
-        <v>139.4050811729948</v>
+        <v>157.6151642200256</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0725134439925</v>
+        <v>197.1119545918172</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>214.5905041023944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>189.6432546294787</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.2238795995383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>127.2109649759004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3560171571881</v>
+        <v>151.3165760093624</v>
       </c>
       <c r="H4" t="n">
-        <v>156.5817812997788</v>
+        <v>138.3716982527469</v>
       </c>
       <c r="I4" t="n">
         <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>30.25726943980791</v>
+        <v>30.25726943980663</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.99261747075038</v>
+        <v>14.78253442371825</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545825</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.5452122042701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.8743994739892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0810387145868</v>
+        <v>363.0166035522201</v>
       </c>
       <c r="G5" t="n">
         <v>363.9123136306534</v>
       </c>
       <c r="H5" t="n">
-        <v>323.1357392253592</v>
+        <v>273.3407321982346</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>126.2123616894778</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27713,7 +27713,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0065332792414</v>
+        <v>10.21152625211678</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.298869728286725</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>106.0324861546552</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.63895561944454</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>95.62604099580662</v>
       </c>
       <c r="G7" t="n">
         <v>167.2753302804353</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.32019944182534</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>207.2645657237087</v>
       </c>
       <c r="U7" t="n">
-        <v>242.4205517627437</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>175.9146483619125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.7896463249702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.1602316460841</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>351.1526508336461</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819527</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410462</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101213</v>
+        <v>53.29137858519758</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
-        <v>320.8837515121155</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047752</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846046</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740719</v>
       </c>
       <c r="H9" t="n">
-        <v>94.3070226080567</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.5483392211252</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
         <v>196.0368949650912</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>143.5077878167638</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>49.86664198017982</v>
+        <v>36.50281289328871</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164552</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>42.48105001084181</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698837</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.2685648207206</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>202.0427321192788</v>
       </c>
       <c r="X10" t="n">
-        <v>113.5969952641137</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605503</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221194</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221639</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605712</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221667</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624353</v>
+        <v>1.415539306624359</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396666</v>
+        <v>14.49689192396672</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863541</v>
+        <v>54.57257911863564</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256088</v>
+        <v>120.1421292256093</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750176</v>
+        <v>180.0619080750184</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301227</v>
+        <v>223.3827191301237</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743035</v>
+        <v>248.5563162743046</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436217</v>
+        <v>247.6231466436228</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490041</v>
+        <v>238.5024483490051</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167153</v>
+        <v>203.5563217167162</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982307</v>
+        <v>152.8623202982313</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974207</v>
+        <v>88.91887096974246</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970247</v>
+        <v>32.25660194970261</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748107</v>
+        <v>6.196523314748134</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299482</v>
+        <v>0.1132431445299487</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660398</v>
+        <v>0.7573802997660432</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898334</v>
+        <v>7.314699210898366</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720795</v>
+        <v>26.07647084720807</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079064</v>
+        <v>71.55582911079095</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951153</v>
+        <v>122.3003091951158</v>
       </c>
       <c r="L3" t="n">
-        <v>156.764462826905</v>
+        <v>145.3766904889291</v>
       </c>
       <c r="M3" t="n">
-        <v>159.608356037856</v>
+        <v>160.3441169690502</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303641</v>
+        <v>149.5517951303652</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914753</v>
+        <v>160.8063274914763</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>144.626418821114</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645099</v>
+        <v>96.6789308964514</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389502</v>
+        <v>47.02401545389522</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381218</v>
+        <v>14.06800688381224</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004344</v>
+        <v>3.052774103004357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039737</v>
+        <v>0.0498276513003976</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706373</v>
+        <v>0.6349622012706401</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660761</v>
+        <v>5.645391207660786</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730244</v>
+        <v>19.09504510730252</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983405</v>
+        <v>44.89182762983425</v>
       </c>
       <c r="K4" t="n">
-        <v>73.7710630203522</v>
+        <v>73.77106302035253</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800003</v>
+        <v>94.40156217800045</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099634</v>
+        <v>99.53321124099678</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535132</v>
+        <v>97.16653394535174</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778066</v>
+        <v>89.74902095778104</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185959</v>
+        <v>76.79579205185992</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.169425780944</v>
+        <v>53.16942578094424</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258701</v>
+        <v>28.55020952258714</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305283</v>
+        <v>11.06565945305288</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519995</v>
+        <v>2.713020314520007</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748935</v>
+        <v>0.0346343018874895</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31379,10 +31379,10 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647242</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889108</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137789</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172215</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307194</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.048789576915</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>336.0874769754129</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215143</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>322.4930563808908</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.240362480537</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567326</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612408</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508308</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517794</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444353</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.2595155368702</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798992</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969363</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>168.0758322358085</v>
+        <v>168.0758322358086</v>
       </c>
       <c r="M9" t="n">
-        <v>254.2466940469417</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.4543722082567</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628786</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177394</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515091</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>19.02217175778919</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730407</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261822</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071345</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674347</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>25.81952303220729</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968441</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>99.7501524642107</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.5846540641929</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020391</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>121.3548803218739</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187683</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097379</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832442</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9625228696316</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.66843283710321</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493467</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601098</v>
+        <v>4.709819673601096</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226725</v>
+        <v>48.23444073226724</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665065</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223015</v>
+        <v>399.7400575223014</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058361</v>
+        <v>599.1067243058359</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418059</v>
+        <v>743.2448681418056</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622094</v>
+        <v>827.003123762209</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098285</v>
+        <v>840.3848989098282</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304576</v>
+        <v>793.5516295304573</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384304</v>
+        <v>677.2779563384302</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775909</v>
+        <v>508.6075392775907</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718452</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
         <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118882</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880878</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681948</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137566</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.7623207914618</v>
+        <v>86.76232079146178</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667362</v>
+        <v>212.6037375860496</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332887</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755092</v>
+        <v>638.5043658755089</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111966</v>
+        <v>655.4036765111964</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062966</v>
+        <v>599.5663205062963</v>
       </c>
       <c r="P15" t="n">
-        <v>455.7261287261491</v>
+        <v>481.204830906836</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999623</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731126</v>
+        <v>156.4595430731125</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762299</v>
+        <v>46.80744312762297</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244428</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482775</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291428</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720811</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
         <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023035</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587879</v>
+        <v>331.1695226587878</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102408</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824762</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
         <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150494</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320854</v>
+        <v>94.99300928320851</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869607</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408008</v>
+        <v>9.026832665408005</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860599</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32327,10 +32327,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>211.6584993001656</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>165.0055127797845</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32789,10 +32789,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
@@ -32801,16 +32801,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33035,19 +33035,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>247.5609517346425</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>277.0331173735794</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
@@ -33272,19 +33272,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33503,25 +33503,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.2010137373307</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>358.0756880380876</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>281.2161430610879</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33977,7 +33977,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
-        <v>515.8955028434989</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34211,10 +34211,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>277.0331173735794</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34448,28 +34448,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>324.2686513738034</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.070085188520292</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317356</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.4743221158387</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703081</v>
+        <v>6.822310709054952</v>
       </c>
       <c r="M3" t="n">
-        <v>17.47432211583764</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.65201140678374</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="L4" t="n">
-        <v>18.21008304703081</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="M4" t="n">
-        <v>17.47432211583765</v>
+        <v>18.2100830470319</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>17.4743221158387</v>
       </c>
       <c r="O4" t="n">
-        <v>18.21008304703081</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>42.86418322768704</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,7 +34948,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>47.78308755128121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,16 +35094,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="L7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>47.78308755128119</v>
       </c>
       <c r="N7" t="n">
-        <v>47.78308755128119</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>49.79500702712463</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573883</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692776</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481401</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920411</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526745</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.5279347225773</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52145245593429</v>
+        <v>29.52145245593445</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184342</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340917</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.48066063832785</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M10" t="n">
-        <v>112.1126601249234</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336805942</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>37.3972437415594</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836618</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956152</v>
+        <v>218.6941529956151</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608556</v>
+        <v>379.0168732608553</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718187</v>
+        <v>507.4784531718183</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349367</v>
+        <v>596.6568905349363</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132375</v>
+        <v>610.9718353132373</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087708</v>
+        <v>563.4534181087705</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831608</v>
+        <v>446.0449605831606</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031414</v>
+        <v>286.3018494031412</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771312</v>
+        <v>80.267672257713</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000695</v>
+        <v>85.76611091938292</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534145</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534908</v>
+        <v>496.3703319534906</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278634</v>
+        <v>524.0619644278631</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618522</v>
+        <v>456.9700760618518</v>
       </c>
       <c r="P15" t="n">
-        <v>321.7517213118189</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139408</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
-        <v>10.78003910914862</v>
+        <v>10.78003910914856</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.0060914554083</v>
+        <v>56.00609145540824</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654243</v>
+        <v>223.1835325654242</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626196</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206285</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894693</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965159</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767831</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335498</v>
+        <v>90.74467096335489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>69.06225485572118</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>38.1678861131178</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36437,10 +36437,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36522,19 +36522,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641561</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>116.2192396513092</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010931</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>139.1916783992205</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
@@ -36920,19 +36920,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37151,25 +37151,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.2192396513092</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>224.1012806237574</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
-        <v>381.9210954291686</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37859,10 +37859,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>139.1916783992205</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38096,28 +38096,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>182.1346174517851</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
